--- a/teaching/traditional_assets/database/data/finland/finland_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/finland/finland_financial_svcs_non_bank_insurance.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.2425</v>
+        <v>0.1063</v>
       </c>
       <c r="E2">
-        <v>0.191695</v>
+        <v>0.03885</v>
       </c>
       <c r="F2">
-        <v>0.51</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="G2">
-        <v>0.08306484923585296</v>
+        <v>0.09886471144749291</v>
       </c>
       <c r="H2">
-        <v>0.01615035109458901</v>
+        <v>0.008987701040681174</v>
       </c>
       <c r="I2">
-        <v>0.01977911416381457</v>
+        <v>0.001182592242194891</v>
       </c>
       <c r="J2">
-        <v>0.0143836397054052</v>
+        <v>0.0009910106997811686</v>
       </c>
       <c r="K2">
-        <v>29.063</v>
+        <v>15.06</v>
       </c>
       <c r="L2">
-        <v>0.1200454357703429</v>
+        <v>0.07123935666982024</v>
       </c>
       <c r="M2">
-        <v>9.44</v>
+        <v>5.31</v>
       </c>
       <c r="N2">
-        <v>0.02596259625962596</v>
+        <v>0.01798780487804878</v>
       </c>
       <c r="O2">
-        <v>0.3248116161442383</v>
+        <v>0.352589641434263</v>
       </c>
       <c r="P2">
-        <v>9.124000000000001</v>
+        <v>5.05</v>
       </c>
       <c r="Q2">
-        <v>0.02509350935093509</v>
+        <v>0.0171070460704607</v>
       </c>
       <c r="R2">
-        <v>0.3139386849258508</v>
+        <v>0.3353253652058433</v>
       </c>
       <c r="S2">
-        <v>0.3159999999999998</v>
+        <v>0.2599999999999998</v>
       </c>
       <c r="T2">
-        <v>0.03347457627118643</v>
+        <v>0.04896421845574384</v>
       </c>
       <c r="U2">
-        <v>154.561</v>
+        <v>317.96</v>
       </c>
       <c r="V2">
-        <v>0.4250852585258526</v>
+        <v>1.07710027100271</v>
       </c>
       <c r="W2">
-        <v>0.0948076923076923</v>
+        <v>0.06659090909090909</v>
       </c>
       <c r="X2">
-        <v>0.02803711703198684</v>
+        <v>0.02114035451499249</v>
       </c>
       <c r="Y2">
-        <v>0.06677057527570546</v>
+        <v>0.0454505545759166</v>
       </c>
       <c r="Z2">
-        <v>1.122286162361963</v>
+        <v>0.7797486656855259</v>
       </c>
       <c r="AA2">
-        <v>0.006580156381832039</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.02816804652862762</v>
+        <v>0.02012841353003278</v>
       </c>
       <c r="AC2">
-        <v>-0.02566529450286731</v>
+        <v>-0.01784852803162772</v>
       </c>
       <c r="AD2">
-        <v>243.8</v>
+        <v>227.53</v>
       </c>
       <c r="AE2">
-        <v>3.357382304702461</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>247.1573823047025</v>
+        <v>227.53</v>
       </c>
       <c r="AG2">
-        <v>92.59638230470247</v>
+        <v>-90.42999999999998</v>
       </c>
       <c r="AH2">
-        <v>0.4046735896536366</v>
+        <v>0.4352725116216785</v>
       </c>
       <c r="AI2">
-        <v>0.5759131556292799</v>
+        <v>0.523743756186267</v>
       </c>
       <c r="AJ2">
-        <v>0.2029748281582284</v>
+        <v>-0.4416174244274063</v>
       </c>
       <c r="AK2">
-        <v>0.3372090394182762</v>
+        <v>-0.7764231132480464</v>
       </c>
       <c r="AL2">
-        <v>2.7</v>
+        <v>1.66</v>
       </c>
       <c r="AM2">
-        <v>2.488</v>
+        <v>1.101</v>
       </c>
       <c r="AN2">
-        <v>44.0072202166065</v>
+        <v>651.948424068768</v>
       </c>
       <c r="AO2">
-        <v>1.288888888888889</v>
+        <v>0.1506024096385542</v>
       </c>
       <c r="AP2">
-        <v>16.71414843045171</v>
+        <v>-259.1117478510028</v>
       </c>
       <c r="AQ2">
-        <v>1.398713826366559</v>
+        <v>0.2270663033605813</v>
       </c>
     </row>
     <row r="3">
@@ -727,119 +727,113 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="F3">
-        <v>0.51</v>
-      </c>
       <c r="G3">
-        <v>0.252258064516129</v>
+        <v>0.1319444444444444</v>
       </c>
       <c r="H3">
-        <v>0.252258064516129</v>
+        <v>0.1319444444444444</v>
       </c>
       <c r="I3">
-        <v>0.2245161290322581</v>
+        <v>0.01736111111111111</v>
       </c>
       <c r="J3">
-        <v>0.141181698485846</v>
+        <v>0.01736111111111111</v>
       </c>
       <c r="K3">
-        <v>0.493</v>
+        <v>-1.37</v>
       </c>
       <c r="L3">
-        <v>0.03180645161290323</v>
+        <v>-0.0951388888888889</v>
       </c>
       <c r="M3">
-        <v>0.324</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.009700598802395211</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.6572008113590264</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.324</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.009700598802395211</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.6572008113590264</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>8.76</v>
+        <v>4.46</v>
       </c>
       <c r="V3">
-        <v>0.2622754491017964</v>
+        <v>0.1755905511811024</v>
       </c>
       <c r="W3">
-        <v>0.0948076923076923</v>
+        <v>-0.08203592814371259</v>
       </c>
       <c r="X3">
-        <v>0.02776718268528245</v>
+        <v>0.02114035451499249</v>
       </c>
       <c r="Y3">
-        <v>0.06704050962240984</v>
+        <v>-0.1031762826587051</v>
       </c>
       <c r="Z3">
-        <v>1.831285444234404</v>
+        <v>1.611820013431834</v>
       </c>
       <c r="AA3">
-        <v>0.2585439894294201</v>
+        <v>0.02798298634430267</v>
       </c>
       <c r="AB3">
-        <v>0.02792388411049465</v>
+        <v>0.02012841353003278</v>
       </c>
       <c r="AC3">
-        <v>0.2306201053189255</v>
+        <v>0.007854572814269885</v>
       </c>
       <c r="AD3">
-        <v>1.02</v>
+        <v>13.1</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.02</v>
+        <v>13.1</v>
       </c>
       <c r="AG3">
-        <v>-7.74</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.02963393375944218</v>
+        <v>0.3402597402597403</v>
       </c>
       <c r="AI3">
-        <v>0.05756207674943567</v>
+        <v>0.458041958041958</v>
       </c>
       <c r="AJ3">
-        <v>-0.3016367887763056</v>
+        <v>0.2538190364277321</v>
       </c>
       <c r="AK3">
-        <v>-0.8638392857142858</v>
+        <v>0.3579121789560895</v>
       </c>
       <c r="AL3">
-        <v>2.7</v>
+        <v>1.66</v>
       </c>
       <c r="AM3">
-        <v>2.695</v>
+        <v>1.636</v>
       </c>
       <c r="AN3">
-        <v>0.2865168539325842</v>
+        <v>37.53581661891118</v>
       </c>
       <c r="AO3">
-        <v>1.288888888888889</v>
+        <v>0.1506024096385542</v>
       </c>
       <c r="AP3">
-        <v>-2.174157303370786</v>
+        <v>24.75644699140402</v>
       </c>
       <c r="AQ3">
-        <v>1.291280148423005</v>
+        <v>0.1528117359413203</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +844,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ferratum Oyj (XTRA:FRU)</t>
+          <t>United Bankers Oyj (HLSE:UNIAV)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -859,118 +853,109 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.346</v>
+        <v>0.05860000000000001</v>
       </c>
       <c r="E4">
-        <v>0.389</v>
+        <v>0.12</v>
       </c>
       <c r="G4">
-        <v>0.08517350157728706</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.006879724180123596</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.005917898663679132</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>26.6</v>
+        <v>7.64</v>
       </c>
       <c r="L4">
-        <v>0.1398527865404837</v>
+        <v>0.1919597989949749</v>
       </c>
       <c r="M4">
-        <v>4.3</v>
+        <v>5.31</v>
       </c>
       <c r="N4">
-        <v>0.0189010989010989</v>
+        <v>0.03898678414096916</v>
       </c>
       <c r="O4">
-        <v>0.1616541353383459</v>
+        <v>0.6950261780104712</v>
       </c>
       <c r="P4">
-        <v>4.3</v>
+        <v>5.05</v>
       </c>
       <c r="Q4">
-        <v>0.0189010989010989</v>
+        <v>0.03707782672540382</v>
       </c>
       <c r="R4">
-        <v>0.1616541353383459</v>
+        <v>0.6609947643979057</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.2599999999999998</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.04896421845574384</v>
       </c>
       <c r="U4">
-        <v>145.8</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.6408791208791209</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.2121212121212121</v>
+        <v>0.2301204819277108</v>
       </c>
       <c r="X4">
-        <v>0.03458715956931935</v>
+        <v>0.01784099133054493</v>
       </c>
       <c r="Y4">
-        <v>0.1775340525518928</v>
+        <v>0.2122794905971659</v>
       </c>
       <c r="Z4">
-        <v>1.111907580002592</v>
+        <v>0.9832258702043032</v>
       </c>
       <c r="AA4">
-        <v>0.006580156381832039</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03224545088469935</v>
+        <v>0.01784852803162772</v>
       </c>
       <c r="AC4">
-        <v>-0.02566529450286731</v>
+        <v>-0.01784852803162772</v>
       </c>
       <c r="AD4">
-        <v>235.5</v>
+        <v>3.23</v>
       </c>
       <c r="AE4">
-        <v>3.357382304702461</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>238.8573823047025</v>
+        <v>3.23</v>
       </c>
       <c r="AG4">
-        <v>93.05738230470246</v>
+        <v>3.23</v>
       </c>
       <c r="AH4">
-        <v>0.512176694028703</v>
+        <v>0.02316574625259988</v>
       </c>
       <c r="AI4">
-        <v>0.6440680264211468</v>
+        <v>0.07221104404202996</v>
       </c>
       <c r="AJ4">
-        <v>0.2902986717562091</v>
+        <v>0.02316574625259988</v>
       </c>
       <c r="AK4">
-        <v>0.4134829142316834</v>
+        <v>0.07221104404202996</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>-0.207</v>
-      </c>
-      <c r="AN4">
-        <v>118.9393939393939</v>
-      </c>
-      <c r="AP4">
-        <v>46.99867793166791</v>
-      </c>
-      <c r="AQ4">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -981,7 +966,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>United Bankers Oyj (HLSE:UNIAV)</t>
+          <t>Ferratum Oyj (XTRA:FRU)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -990,13 +975,16 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.139</v>
+        <v>0.154</v>
       </c>
       <c r="E5">
-        <v>-0.00561</v>
+        <v>-0.0423</v>
+      </c>
+      <c r="F5">
+        <v>0.03700000000000001</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.1208651399491094</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1008,91 +996,91 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.97</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="L5">
-        <v>0.05412087912087912</v>
+        <v>0.05591603053435115</v>
       </c>
       <c r="M5">
-        <v>4.816</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.04689386562804284</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>2.444670050761421</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>4.5</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.04381694255111977</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>2.284263959390863</v>
+        <v>-0</v>
       </c>
       <c r="S5">
-        <v>0.3159999999999998</v>
-      </c>
-      <c r="T5">
-        <v>0.06561461794019931</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.001</v>
+        <v>313.5</v>
       </c>
       <c r="V5">
-        <v>9.737098344693281e-06</v>
+        <v>2.346556886227545</v>
       </c>
       <c r="W5">
-        <v>0.06024464831804281</v>
+        <v>0.06659090909090909</v>
       </c>
       <c r="X5">
-        <v>0.02803711703198684</v>
+        <v>0.02828239653974361</v>
       </c>
       <c r="Y5">
-        <v>0.03220753128605597</v>
+        <v>0.03830851255116548</v>
       </c>
       <c r="Z5">
-        <v>1.005552639575679</v>
+        <v>0.7090663058186739</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.02816804652862762</v>
+        <v>0.02532016521023656</v>
       </c>
       <c r="AC5">
-        <v>-0.02816804652862762</v>
+        <v>-0.02532016521023656</v>
       </c>
       <c r="AD5">
-        <v>7.28</v>
+        <v>211.2</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>7.28</v>
+        <v>211.2</v>
       </c>
       <c r="AG5">
-        <v>7.279</v>
+        <v>-102.3</v>
       </c>
       <c r="AH5">
-        <v>0.06619385342789598</v>
+        <v>0.6125290023201857</v>
       </c>
       <c r="AI5">
-        <v>0.1793987185805816</v>
+        <v>0.5848795347549155</v>
       </c>
       <c r="AJ5">
-        <v>0.06618536266014421</v>
+        <v>-3.268370607028756</v>
       </c>
       <c r="AK5">
-        <v>0.1793784962665418</v>
+        <v>-2.149159663865547</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>-0.535</v>
+      </c>
+      <c r="AQ5">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
